--- a/sbs_meta/output/sbs_meta.xlsx
+++ b/sbs_meta/output/sbs_meta.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39040" yWindow="5020" windowWidth="24060" windowHeight="12600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="38680" yWindow="6000" windowWidth="26440" windowHeight="10660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="study_table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>entered_by</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>Fisher2009</t>
+  </si>
+  <si>
+    <t>compared museum samples with modern samples from same 19 sites;</t>
+  </si>
+  <si>
+    <t>Nucella_lapillus</t>
+  </si>
+  <si>
+    <t>paper_mean</t>
+  </si>
+  <si>
+    <t>Elahi2016</t>
+  </si>
+  <si>
+    <t>n_species</t>
+  </si>
+  <si>
+    <t>n_time_points</t>
+  </si>
+  <si>
+    <t>n_comparisons</t>
   </si>
 </sst>
 </file>
@@ -218,8 +242,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -249,7 +295,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +305,17 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -268,6 +325,17 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,26 +665,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -636,11 +707,17 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -658,8 +735,11 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,20 +750,85 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
+        <v>-117.816</v>
+      </c>
+      <c r="E2" s="1">
         <v>33.555</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-117.816</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-68.369</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44.255000000000003</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -694,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,6 +995,35 @@
       </c>
       <c r="I5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>

--- a/sbs_meta/output/sbs_meta.xlsx
+++ b/sbs_meta/output/sbs_meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38680" yWindow="6000" windowWidth="26440" windowHeight="10660" tabRatio="500"/>
+    <workbookView xWindow="4480" yWindow="3100" windowWidth="21460" windowHeight="9440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="study_table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>entered_by</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>n_comparisons</t>
+  </si>
+  <si>
+    <t>hadLong</t>
+  </si>
+  <si>
+    <t>hadLat</t>
+  </si>
+  <si>
+    <t>hadYear1</t>
+  </si>
+  <si>
+    <t>hadYear2</t>
   </si>
 </sst>
 </file>
@@ -242,8 +254,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,7 +323,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -316,6 +344,14 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -336,6 +372,14 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -679,15 +723,16 @@
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1">
+    <row r="1" spans="1:34" ht="16" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -704,24 +749,32 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -738,8 +791,12 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -755,23 +812,36 @@
       <c r="E2" s="1">
         <v>33.555</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>-117.824</v>
+      </c>
+      <c r="G2" s="1">
+        <v>33.542000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1869 - 10</f>
+        <v>1859</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -787,23 +857,36 @@
       <c r="E3" s="1">
         <v>44.255000000000003</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>-68.385000000000005</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44.234000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <f>1915-10</f>
+        <v>1905</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -813,16 +896,35 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>-121.9049</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36.621859999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-121.895</v>
+      </c>
+      <c r="G4" s="1">
+        <v>36.628999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <f xml:space="preserve"> 1947 - 10</f>
+        <v>1937</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>10</v>
       </c>
     </row>

--- a/sbs_meta/output/sbs_meta.xlsx
+++ b/sbs_meta/output/sbs_meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="3100" windowWidth="21460" windowHeight="9440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="study_table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>entered_by</t>
   </si>
@@ -158,9 +158,6 @@
     <t>paper_mean</t>
   </si>
   <si>
-    <t>Elahi2016</t>
-  </si>
-  <si>
     <t>n_species</t>
   </si>
   <si>
@@ -180,6 +177,39 @@
   </si>
   <si>
     <t>hadYear2</t>
+  </si>
+  <si>
+    <t>Chlorostoma_funebralis</t>
+  </si>
+  <si>
+    <t>Littorina_keenae</t>
+  </si>
+  <si>
+    <t>Lottia_digitalis</t>
+  </si>
+  <si>
+    <t>Prosobranchia</t>
+  </si>
+  <si>
+    <t>Archaegastropoda</t>
+  </si>
+  <si>
+    <t>Trochidae</t>
+  </si>
+  <si>
+    <t>Littorinimorpha</t>
+  </si>
+  <si>
+    <t>Littorinidae</t>
+  </si>
+  <si>
+    <t>Lottiidae</t>
+  </si>
+  <si>
+    <t>Patellogastropoda</t>
+  </si>
+  <si>
+    <t>Elahi2015</t>
   </si>
 </sst>
 </file>
@@ -254,8 +284,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,7 +359,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -352,6 +388,9 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -380,6 +419,9 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,7 +755,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,28 +791,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>5</v>
@@ -888,7 +930,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -941,17 +983,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1125,6 +1167,93 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1144,7 +1273,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
